--- a/Data/LDH/LDH 9-9-19/RLE6TN + Ox66 48HRS Normoxia LDH 9-9-19.xlsx
+++ b/Data/LDH/LDH 9-9-19/RLE6TN + Ox66 48HRS Normoxia LDH 9-9-19.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Experiments\Bruce Lab\Amjad\LDH\LDH 9-9-19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amjad\PycharmProjects\excel_analysis\Data\LDH\LDH 9-9-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BD2BA7-7AA9-4E9F-8336-7A5C1DD7FE32}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>A</t>
   </si>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -81,7 +82,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,18 +143,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8DBCE0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBAD7EF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -182,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -215,12 +204,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -502,16 +485,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2">
         <v>1</v>
@@ -550,7 +533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -590,7 +573,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -630,7 +613,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -670,7 +653,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,7 +693,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -750,7 +733,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -790,7 +773,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -830,7 +813,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -870,7 +853,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2">
         <v>1</v>
@@ -909,682 +892,323 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="4">
-        <v>1.2729999999999999</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1.0109999999999999</v>
+      <c r="C13" s="9">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1.196</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1.016</v>
       </c>
       <c r="H13" s="5">
-        <v>0.93600000000000005</v>
+        <v>1.036</v>
       </c>
       <c r="I13" s="5">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="J13" s="6">
-        <v>1.01</v>
-      </c>
-      <c r="K13" s="11">
-        <v>0.76800000000000002</v>
+        <v>1.071</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1.08</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
       </c>
       <c r="L13" s="4">
-        <v>1.298</v>
+        <v>1.456</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="8">
         <v>490</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="4">
-        <v>1.2749999999999999</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.92700000000000005</v>
+        <v>1.52</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1.1910000000000001</v>
       </c>
       <c r="E14" s="5">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.997</v>
+        <v>1.044</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1.0409999999999999</v>
       </c>
       <c r="H14" s="5">
-        <v>0.871</v>
+        <v>0.98</v>
       </c>
       <c r="I14" s="5">
-        <v>0.878</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="J14" s="5">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="K14" s="12">
-        <v>0.74</v>
-      </c>
-      <c r="L14" s="4">
-        <v>1.3109999999999999</v>
+        <v>1.03</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1.026</v>
+      </c>
+      <c r="L14" s="10">
+        <v>1.4259999999999999</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="8">
         <v>490</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4">
-        <v>1.258</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.92200000000000004</v>
+        <v>1.512</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1.1120000000000001</v>
       </c>
       <c r="E15" s="5">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="G15" s="6">
+        <v>1.018</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1.153</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="H15" s="11">
         <v>0.96899999999999997</v>
       </c>
-      <c r="H15" s="5">
-        <v>0.88400000000000001</v>
-      </c>
       <c r="I15" s="5">
-        <v>0.873</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="K15" s="12">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="L15" s="4">
-        <v>1.284</v>
+        <v>1.026</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0.97</v>
+      </c>
+      <c r="L15" s="10">
+        <v>1.4330000000000001</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="8">
         <v>490</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="4">
-        <v>1.3049999999999999</v>
+        <v>1.5209999999999999</v>
       </c>
       <c r="D16" s="5">
-        <v>0.91200000000000003</v>
+        <v>1.089</v>
       </c>
       <c r="E16" s="5">
-        <v>0.94</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0.90200000000000002</v>
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1.099</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0.97599999999999998</v>
       </c>
       <c r="I16" s="5">
-        <v>0.86599999999999999</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="K16" s="12">
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="L16" s="4">
-        <v>1.262</v>
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="L16" s="10">
+        <v>1.4339999999999999</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="8">
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="4">
-        <v>1.288</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0.92700000000000005</v>
+        <v>1.52</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1.117</v>
       </c>
       <c r="E17" s="5">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0.91400000000000003</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0.97099999999999997</v>
+        <v>1.01</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1.0389999999999999</v>
       </c>
       <c r="H17" s="5">
-        <v>0.89300000000000002</v>
+        <v>1.006</v>
       </c>
       <c r="I17" s="5">
-        <v>0.875</v>
-      </c>
-      <c r="J17" s="6">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="K17" s="12">
-        <v>0.747</v>
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1.026</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.99</v>
       </c>
       <c r="L17" s="4">
-        <v>1.282</v>
+        <v>1.46</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="8">
         <v>490</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="4">
-        <v>1.3069999999999999</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0.93799999999999994</v>
+        <v>1.55</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1.139</v>
       </c>
       <c r="E18" s="5">
-        <v>0.93100000000000005</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="F18" s="6">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0.997</v>
+        <v>1.133</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1.052</v>
       </c>
       <c r="H18" s="5">
-        <v>0.91400000000000003</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="I18" s="5">
-        <v>0.89300000000000002</v>
+        <v>1.026</v>
       </c>
       <c r="J18" s="5">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="K18" s="12">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="L18" s="4">
-        <v>1.3049999999999999</v>
+        <v>1.093</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="L18" s="10">
+        <v>1.4410000000000001</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="8">
         <v>490</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="4">
-        <v>1.339</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0.97</v>
+      <c r="C19" s="9">
+        <v>1.5609999999999999</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1.149</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1.042</v>
       </c>
       <c r="F19" s="6">
-        <v>0.96099999999999997</v>
+        <v>1.1779999999999999</v>
       </c>
       <c r="G19" s="6">
-        <v>1.026</v>
+        <v>1.123</v>
       </c>
       <c r="H19" s="5">
-        <v>0.92900000000000005</v>
+        <v>1.0129999999999999</v>
       </c>
       <c r="I19" s="5">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="K19" s="6">
-        <v>0.96</v>
+        <v>1.083</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="K19" s="5">
+        <v>1.02</v>
       </c>
       <c r="L19" s="4">
-        <v>1.3340000000000001</v>
+        <v>1.48</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="8">
         <v>490</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="9">
-        <v>1.431</v>
+        <v>1.675</v>
       </c>
       <c r="D20" s="6">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1.0740000000000001</v>
-      </c>
-      <c r="F20" s="6">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="G20" s="7">
-        <v>1.137</v>
+        <v>1.206</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1.133</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1.2889999999999999</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1.1950000000000001</v>
       </c>
       <c r="H20" s="6">
-        <v>1.002</v>
+        <v>1.0980000000000001</v>
       </c>
       <c r="I20" s="6">
-        <v>1.014</v>
-      </c>
-      <c r="J20" s="13">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="K20" s="11">
-        <v>0.83199999999999996</v>
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1.175</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1.141</v>
       </c>
       <c r="L20" s="9">
-        <v>1.45</v>
+        <v>1.581</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="8">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2">
-        <v>4</v>
-      </c>
-      <c r="F22" s="2">
-        <v>5</v>
-      </c>
-      <c r="G22" s="2">
-        <v>6</v>
-      </c>
-      <c r="H22" s="2">
-        <v>7</v>
-      </c>
-      <c r="I22" s="2">
-        <v>8</v>
-      </c>
-      <c r="J22" s="2">
-        <v>9</v>
-      </c>
-      <c r="K22" s="2">
-        <v>10</v>
-      </c>
-      <c r="L22" s="2">
-        <v>11</v>
-      </c>
-      <c r="M22" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="9">
-        <v>1.6060000000000001</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1.1910000000000001</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1.0820000000000001</v>
-      </c>
-      <c r="F23" s="6">
-        <v>1.196</v>
-      </c>
-      <c r="G23" s="5">
-        <v>1.016</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1.036</v>
-      </c>
-      <c r="I23" s="5">
-        <v>1.071</v>
-      </c>
-      <c r="J23" s="5">
-        <v>1.08</v>
-      </c>
-      <c r="K23" s="5">
-        <v>1</v>
-      </c>
-      <c r="L23" s="4">
-        <v>1.456</v>
-      </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="8">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4">
-        <v>1.52</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1.1910000000000001</v>
-      </c>
-      <c r="E24" s="5">
-        <v>1.044</v>
-      </c>
-      <c r="F24" s="6">
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="G24" s="5">
-        <v>1.0409999999999999</v>
-      </c>
-      <c r="H24" s="5">
-        <v>0.98</v>
-      </c>
-      <c r="I24" s="5">
-        <v>1.0069999999999999</v>
-      </c>
-      <c r="J24" s="5">
-        <v>1.03</v>
-      </c>
-      <c r="K24" s="5">
-        <v>1.026</v>
-      </c>
-      <c r="L24" s="10">
-        <v>1.4259999999999999</v>
-      </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="8">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4">
-        <v>1.512</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1.1120000000000001</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1.018</v>
-      </c>
-      <c r="F25" s="6">
-        <v>1.153</v>
-      </c>
-      <c r="G25" s="5">
-        <v>1.0880000000000001</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="I25" s="5">
-        <v>1.026</v>
-      </c>
-      <c r="J25" s="5">
-        <v>1.004</v>
-      </c>
-      <c r="K25" s="11">
-        <v>0.97</v>
-      </c>
-      <c r="L25" s="10">
-        <v>1.4330000000000001</v>
-      </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="8">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4">
-        <v>1.5209999999999999</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1.089</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="F26" s="6">
-        <v>1.099</v>
-      </c>
-      <c r="G26" s="5">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="H26" s="11">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="I26" s="5">
-        <v>1.0169999999999999</v>
-      </c>
-      <c r="J26" s="5">
-        <v>1.0289999999999999</v>
-      </c>
-      <c r="K26" s="5">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="L26" s="10">
-        <v>1.4339999999999999</v>
-      </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="8">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4">
-        <v>1.52</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1.117</v>
-      </c>
-      <c r="E27" s="5">
-        <v>1.01</v>
-      </c>
-      <c r="F27" s="6">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="G27" s="5">
-        <v>1.0389999999999999</v>
-      </c>
-      <c r="H27" s="5">
-        <v>1.006</v>
-      </c>
-      <c r="I27" s="5">
-        <v>1.0269999999999999</v>
-      </c>
-      <c r="J27" s="5">
-        <v>1.026</v>
-      </c>
-      <c r="K27" s="5">
-        <v>0.99</v>
-      </c>
-      <c r="L27" s="4">
-        <v>1.46</v>
-      </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="8">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4">
-        <v>1.55</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1.139</v>
-      </c>
-      <c r="E28" s="5">
-        <v>1.0269999999999999</v>
-      </c>
-      <c r="F28" s="6">
-        <v>1.133</v>
-      </c>
-      <c r="G28" s="5">
-        <v>1.052</v>
-      </c>
-      <c r="H28" s="5">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="I28" s="5">
-        <v>1.026</v>
-      </c>
-      <c r="J28" s="5">
-        <v>1.093</v>
-      </c>
-      <c r="K28" s="5">
-        <v>0.996</v>
-      </c>
-      <c r="L28" s="10">
-        <v>1.4410000000000001</v>
-      </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="8">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="9">
-        <v>1.5609999999999999</v>
-      </c>
-      <c r="D29" s="6">
-        <v>1.149</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1.042</v>
-      </c>
-      <c r="F29" s="6">
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="G29" s="6">
-        <v>1.123</v>
-      </c>
-      <c r="H29" s="5">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="I29" s="5">
-        <v>1.083</v>
-      </c>
-      <c r="J29" s="5">
-        <v>1.0860000000000001</v>
-      </c>
-      <c r="K29" s="5">
-        <v>1.02</v>
-      </c>
-      <c r="L29" s="4">
-        <v>1.48</v>
-      </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="8">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="9">
-        <v>1.675</v>
-      </c>
-      <c r="D30" s="6">
-        <v>1.206</v>
-      </c>
-      <c r="E30" s="6">
-        <v>1.133</v>
-      </c>
-      <c r="F30" s="7">
-        <v>1.2889999999999999</v>
-      </c>
-      <c r="G30" s="6">
-        <v>1.1950000000000001</v>
-      </c>
-      <c r="H30" s="6">
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="I30" s="6">
-        <v>1.1579999999999999</v>
-      </c>
-      <c r="J30" s="6">
-        <v>1.175</v>
-      </c>
-      <c r="K30" s="6">
-        <v>1.141</v>
-      </c>
-      <c r="L30" s="9">
-        <v>1.581</v>
-      </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="8">
         <v>490</v>
       </c>
     </row>
